--- a/data/pca/factorExposure/factorExposure_2011-08-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +735,66 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.02185301874135512</v>
+        <v>0.01813302960718233</v>
       </c>
       <c r="C2">
-        <v>-0.01510055599074395</v>
+        <v>0.008035437558758414</v>
       </c>
       <c r="D2">
-        <v>-0.04424774593952977</v>
+        <v>-0.02902304325137918</v>
       </c>
       <c r="E2">
-        <v>-0.06750857089946979</v>
+        <v>-0.03947036778452308</v>
       </c>
       <c r="F2">
-        <v>-0.00132327460020488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.02057817195400615</v>
+      </c>
+      <c r="G2">
+        <v>-0.01855004712012606</v>
+      </c>
+      <c r="H2">
+        <v>0.01715060738818248</v>
+      </c>
+      <c r="I2">
+        <v>0.007847310180668348</v>
+      </c>
+      <c r="J2">
+        <v>0.03624079704829652</v>
+      </c>
+      <c r="K2">
+        <v>-0.07077667824536131</v>
+      </c>
+      <c r="L2">
+        <v>0.05899799730421995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +811,66 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>-0.07718968824948122</v>
+        <v>0.09286004895652217</v>
       </c>
       <c r="C4">
-        <v>-0.04253665012341488</v>
+        <v>0.04971636988815317</v>
       </c>
       <c r="D4">
-        <v>-0.05461731867092696</v>
+        <v>-0.02774611332602844</v>
       </c>
       <c r="E4">
-        <v>-0.02036390210854667</v>
+        <v>-0.03627094561833486</v>
       </c>
       <c r="F4">
-        <v>-0.02887452110527106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.07705541255935325</v>
+      </c>
+      <c r="G4">
+        <v>-0.04321790941141943</v>
+      </c>
+      <c r="H4">
+        <v>0.006374941096274311</v>
+      </c>
+      <c r="I4">
+        <v>-0.0783974061902612</v>
+      </c>
+      <c r="J4">
+        <v>-0.009403921826970335</v>
+      </c>
+      <c r="K4">
+        <v>0.05217307382540204</v>
+      </c>
+      <c r="L4">
+        <v>-0.03689622916618235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +887,446 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.1228953041217602</v>
+        <v>0.1314285555653381</v>
       </c>
       <c r="C6">
-        <v>-0.005511680576034621</v>
+        <v>0.01916399221417462</v>
       </c>
       <c r="D6">
-        <v>-0.06035782965002434</v>
+        <v>-0.0649790628152518</v>
       </c>
       <c r="E6">
-        <v>-0.07453217935476381</v>
+        <v>-0.01887441920622972</v>
       </c>
       <c r="F6">
-        <v>-0.04119622708314846</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.05184649045960076</v>
+      </c>
+      <c r="G6">
+        <v>-0.06377411582542647</v>
+      </c>
+      <c r="H6">
+        <v>-0.171208742271845</v>
+      </c>
+      <c r="I6">
+        <v>-0.08948374953155591</v>
+      </c>
+      <c r="J6">
+        <v>-0.4422650741923286</v>
+      </c>
+      <c r="K6">
+        <v>-0.02987669787706176</v>
+      </c>
+      <c r="L6">
+        <v>-0.04635296115596111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.07042753038466455</v>
+        <v>0.07026325607512332</v>
       </c>
       <c r="C7">
-        <v>-0.0139940736002831</v>
+        <v>0.05018985927644146</v>
       </c>
       <c r="D7">
-        <v>-0.05458516214570964</v>
+        <v>-0.04172585310860726</v>
       </c>
       <c r="E7">
-        <v>-0.05487293395776512</v>
+        <v>-0.03753204968418025</v>
       </c>
       <c r="F7">
-        <v>-0.01113212783675145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.03831549739559604</v>
+      </c>
+      <c r="G7">
+        <v>0.005223268087617938</v>
+      </c>
+      <c r="H7">
+        <v>0.005405534478416245</v>
+      </c>
+      <c r="I7">
+        <v>-0.02947054227833056</v>
+      </c>
+      <c r="J7">
+        <v>0.05895693914925532</v>
+      </c>
+      <c r="K7">
+        <v>0.06075861783586375</v>
+      </c>
+      <c r="L7">
+        <v>0.03044202265171501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>-0.03487296551179055</v>
+        <v>0.03959024752933222</v>
       </c>
       <c r="C8">
-        <v>-0.03919046250990595</v>
+        <v>0.017073087866053</v>
       </c>
       <c r="D8">
-        <v>0.009284078382690053</v>
+        <v>0.01004193550887329</v>
       </c>
       <c r="E8">
-        <v>-0.05650722692543899</v>
+        <v>-0.06641767075820268</v>
       </c>
       <c r="F8">
-        <v>-0.03811802238865766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02501200354158772</v>
+      </c>
+      <c r="G8">
+        <v>-0.06346611402159572</v>
+      </c>
+      <c r="H8">
+        <v>-0.02223522281951282</v>
+      </c>
+      <c r="I8">
+        <v>-0.1034717083172663</v>
+      </c>
+      <c r="J8">
+        <v>0.00888137597319349</v>
+      </c>
+      <c r="K8">
+        <v>0.05312094128352748</v>
+      </c>
+      <c r="L8">
+        <v>-0.06411303848323799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.07774883470229701</v>
+        <v>0.08577666279702997</v>
       </c>
       <c r="C9">
-        <v>-0.05435404008661657</v>
+        <v>0.0510216617594212</v>
       </c>
       <c r="D9">
-        <v>-0.05013866477123789</v>
+        <v>-0.02766464455149433</v>
       </c>
       <c r="E9">
-        <v>-0.02287807106120747</v>
+        <v>-0.02688450577165567</v>
       </c>
       <c r="F9">
-        <v>-0.02099482215191456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.06131871952310442</v>
+      </c>
+      <c r="G9">
+        <v>-0.0524882248660143</v>
+      </c>
+      <c r="H9">
+        <v>0.007821028927546578</v>
+      </c>
+      <c r="I9">
+        <v>-0.08729219807243344</v>
+      </c>
+      <c r="J9">
+        <v>-0.002396574487875105</v>
+      </c>
+      <c r="K9">
+        <v>0.02907416021573481</v>
+      </c>
+      <c r="L9">
+        <v>-0.04173744320907941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.02084434450699519</v>
+        <v>0.07515316790573176</v>
       </c>
       <c r="C10">
-        <v>0.155481895712108</v>
+        <v>-0.1905479090802869</v>
       </c>
       <c r="D10">
-        <v>0.009381512056082267</v>
+        <v>-0.0044750733916965</v>
       </c>
       <c r="E10">
-        <v>-0.07480672132989834</v>
+        <v>-0.05058333052177904</v>
       </c>
       <c r="F10">
-        <v>-0.0391924690963687</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.03195153567531123</v>
+      </c>
+      <c r="G10">
+        <v>0.05053086795245141</v>
+      </c>
+      <c r="H10">
+        <v>-0.02936091236654085</v>
+      </c>
+      <c r="I10">
+        <v>0.03204352268214355</v>
+      </c>
+      <c r="J10">
+        <v>0.01670885742756034</v>
+      </c>
+      <c r="K10">
+        <v>-0.01348934558232279</v>
+      </c>
+      <c r="L10">
+        <v>0.006627670960314935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.07312360772624193</v>
+        <v>0.07375317836715907</v>
       </c>
       <c r="C11">
-        <v>-0.06024075814472041</v>
+        <v>0.05808429969389624</v>
       </c>
       <c r="D11">
-        <v>-0.0433502969465951</v>
+        <v>-0.03087168261058221</v>
       </c>
       <c r="E11">
-        <v>-0.03180157346958535</v>
+        <v>-0.01760313930116267</v>
       </c>
       <c r="F11">
-        <v>0.009041338904679751</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02625893040725782</v>
+      </c>
+      <c r="G11">
+        <v>-0.07258831858001623</v>
+      </c>
+      <c r="H11">
+        <v>0.01632459792807665</v>
+      </c>
+      <c r="I11">
+        <v>-0.05332330164742546</v>
+      </c>
+      <c r="J11">
+        <v>0.07046355165084356</v>
+      </c>
+      <c r="K11">
+        <v>-0.03504924077486742</v>
+      </c>
+      <c r="L11">
+        <v>-0.02839561820113646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.06910670574418802</v>
+        <v>0.07268485069656003</v>
       </c>
       <c r="C12">
-        <v>-0.04710128301771213</v>
+        <v>0.04862227030751761</v>
       </c>
       <c r="D12">
-        <v>-0.04480674296962082</v>
+        <v>-0.01830147351621816</v>
       </c>
       <c r="E12">
-        <v>-0.01877234354012074</v>
+        <v>-0.01288462582550614</v>
       </c>
       <c r="F12">
-        <v>-0.009444808491625262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.0373853149421431</v>
+      </c>
+      <c r="G12">
+        <v>-0.06176686197828307</v>
+      </c>
+      <c r="H12">
+        <v>-0.002298487211168057</v>
+      </c>
+      <c r="I12">
+        <v>-0.08152715962632087</v>
+      </c>
+      <c r="J12">
+        <v>0.06600687689149048</v>
+      </c>
+      <c r="K12">
+        <v>-0.009996842020951364</v>
+      </c>
+      <c r="L12">
+        <v>-0.01329278117202639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.07677005433562982</v>
+        <v>0.06656289232105601</v>
       </c>
       <c r="C13">
-        <v>-0.02411249270011126</v>
+        <v>0.03576221160532185</v>
       </c>
       <c r="D13">
-        <v>-0.01917259497234086</v>
+        <v>0.01527650397207621</v>
       </c>
       <c r="E13">
-        <v>-0.02500881610630765</v>
+        <v>-0.02736540740151838</v>
       </c>
       <c r="F13">
-        <v>-0.02584404249699211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02403115586991582</v>
+      </c>
+      <c r="G13">
+        <v>-0.03005871062655946</v>
+      </c>
+      <c r="H13">
+        <v>0.004000685722744157</v>
+      </c>
+      <c r="I13">
+        <v>-0.06963248572392239</v>
+      </c>
+      <c r="J13">
+        <v>0.03138231768363001</v>
+      </c>
+      <c r="K13">
+        <v>0.09548840460639096</v>
+      </c>
+      <c r="L13">
+        <v>-0.01602424834741844</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.03518806480608577</v>
+        <v>0.04441587825187954</v>
       </c>
       <c r="C14">
-        <v>0.005190645446289586</v>
+        <v>0.008367798535543491</v>
       </c>
       <c r="D14">
-        <v>-0.03643711987494951</v>
+        <v>-0.02750853066571557</v>
       </c>
       <c r="E14">
-        <v>-0.00811597506290989</v>
+        <v>-0.007446250937097568</v>
       </c>
       <c r="F14">
-        <v>-0.007217785741631827</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03973135700151153</v>
+      </c>
+      <c r="G14">
+        <v>-0.03412608988472386</v>
+      </c>
+      <c r="H14">
+        <v>0.04284870632008671</v>
+      </c>
+      <c r="I14">
+        <v>-0.06041685693606247</v>
+      </c>
+      <c r="J14">
+        <v>-0.0124492706887666</v>
+      </c>
+      <c r="K14">
+        <v>0.04776858922261621</v>
+      </c>
+      <c r="L14">
+        <v>-0.03982327919925128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>-0.05633852999505603</v>
+        <v>0.04345389621253058</v>
       </c>
       <c r="C15">
-        <v>-0.01170658055213837</v>
+        <v>0.01629757894228797</v>
       </c>
       <c r="D15">
-        <v>-0.0143891058417683</v>
+        <v>0.01399062312821822</v>
       </c>
       <c r="E15">
-        <v>-0.01187567942607178</v>
+        <v>-0.00014159611062372</v>
       </c>
       <c r="F15">
-        <v>-0.03740735549239884</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.03189595620601215</v>
+      </c>
+      <c r="G15">
+        <v>-0.01532409680319726</v>
+      </c>
+      <c r="H15">
+        <v>0.007571448502953211</v>
+      </c>
+      <c r="I15">
+        <v>-0.03441013101715521</v>
+      </c>
+      <c r="J15">
+        <v>-0.03521888422312507</v>
+      </c>
+      <c r="K15">
+        <v>0.06698005007382218</v>
+      </c>
+      <c r="L15">
+        <v>-0.02191308146603756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>-0.0608979614539659</v>
+        <v>0.07375516625329609</v>
       </c>
       <c r="C16">
-        <v>-0.05972033183188671</v>
+        <v>0.05911036883532336</v>
       </c>
       <c r="D16">
-        <v>-0.04112824155879209</v>
+        <v>-0.02516661826313745</v>
       </c>
       <c r="E16">
-        <v>-0.02010545650790022</v>
+        <v>-0.01497136862807363</v>
       </c>
       <c r="F16">
-        <v>-0.02336427365815385</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.04263336106770294</v>
+      </c>
+      <c r="G16">
+        <v>-0.05294975077394942</v>
+      </c>
+      <c r="H16">
+        <v>0.01888599539365788</v>
+      </c>
+      <c r="I16">
+        <v>-0.05410270214760706</v>
+      </c>
+      <c r="J16">
+        <v>0.05009511953279699</v>
+      </c>
+      <c r="K16">
+        <v>-0.0177650381253063</v>
+      </c>
+      <c r="L16">
+        <v>-0.02667040363341139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1343,28 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1381,28 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1419,294 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.06420264378110327</v>
+        <v>0.05843066624019178</v>
       </c>
       <c r="C20">
-        <v>-0.04726647045103857</v>
+        <v>0.03861790244378111</v>
       </c>
       <c r="D20">
-        <v>-0.01774062695701046</v>
+        <v>-0.01225082218184918</v>
       </c>
       <c r="E20">
-        <v>-0.03023466805753636</v>
+        <v>-0.02364064056175866</v>
       </c>
       <c r="F20">
-        <v>-0.01758380684368248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01379707549627139</v>
+      </c>
+      <c r="G20">
+        <v>-0.04334700931705718</v>
+      </c>
+      <c r="H20">
+        <v>0.02358143168808263</v>
+      </c>
+      <c r="I20">
+        <v>-0.1172892329879114</v>
+      </c>
+      <c r="J20">
+        <v>0.03594736673749779</v>
+      </c>
+      <c r="K20">
+        <v>0.03891176378334567</v>
+      </c>
+      <c r="L20">
+        <v>0.01013573558923261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>-0.04111299812943545</v>
+        <v>0.0290557973433555</v>
       </c>
       <c r="C21">
-        <v>-0.02970640306879817</v>
+        <v>0.02447955485915273</v>
       </c>
       <c r="D21">
-        <v>0.02003909443029845</v>
+        <v>0.03594892353938808</v>
       </c>
       <c r="E21">
-        <v>-0.01548260696660376</v>
+        <v>-0.01706104311215879</v>
       </c>
       <c r="F21">
-        <v>-0.05009832996289326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.0163679057973067</v>
+      </c>
+      <c r="G21">
+        <v>-0.01386114377349311</v>
+      </c>
+      <c r="H21">
+        <v>-0.05842087962548064</v>
+      </c>
+      <c r="I21">
+        <v>-0.06171609695007668</v>
+      </c>
+      <c r="J21">
+        <v>-0.05144053550620519</v>
+      </c>
+      <c r="K21">
+        <v>0.04266310242710028</v>
+      </c>
+      <c r="L21">
+        <v>-0.02530445469135732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>-0.1174574937459705</v>
+        <v>0.08961613839426921</v>
       </c>
       <c r="C22">
-        <v>-0.1027217473038383</v>
+        <v>0.08379638777292343</v>
       </c>
       <c r="D22">
-        <v>0.03609124526943966</v>
+        <v>0.4104352350468961</v>
       </c>
       <c r="E22">
-        <v>-0.006569226326547956</v>
+        <v>-0.1471963276459005</v>
       </c>
       <c r="F22">
-        <v>-0.4321826898180703</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.3835737605198743</v>
+      </c>
+      <c r="G22">
+        <v>0.2690073702016484</v>
+      </c>
+      <c r="H22">
+        <v>-0.03879499194896069</v>
+      </c>
+      <c r="I22">
+        <v>0.1969913537838648</v>
+      </c>
+      <c r="J22">
+        <v>-0.03597560086117516</v>
+      </c>
+      <c r="K22">
+        <v>-0.03579428971946149</v>
+      </c>
+      <c r="L22">
+        <v>0.06669929156983571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>-0.1184663762957803</v>
+        <v>0.09056556026810175</v>
       </c>
       <c r="C23">
-        <v>-0.1019088943845822</v>
+        <v>0.08410341726881855</v>
       </c>
       <c r="D23">
-        <v>0.03410361502903523</v>
+        <v>0.4107839157888503</v>
       </c>
       <c r="E23">
-        <v>-0.007614544924520615</v>
+        <v>-0.1486725234068683</v>
       </c>
       <c r="F23">
-        <v>-0.4340327386163388</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.3879848503734823</v>
+      </c>
+      <c r="G23">
+        <v>0.2637601598296988</v>
+      </c>
+      <c r="H23">
+        <v>-0.03742118901858472</v>
+      </c>
+      <c r="I23">
+        <v>0.1973903180321441</v>
+      </c>
+      <c r="J23">
+        <v>-0.04209686488489207</v>
+      </c>
+      <c r="K23">
+        <v>-0.03793882620881785</v>
+      </c>
+      <c r="L23">
+        <v>0.06711522503591349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>-0.08264189695054953</v>
+        <v>0.08277880994347907</v>
       </c>
       <c r="C24">
-        <v>-0.0548233637245627</v>
+        <v>0.0570502823886159</v>
       </c>
       <c r="D24">
-        <v>-0.03942218139107876</v>
+        <v>-0.01669221657328081</v>
       </c>
       <c r="E24">
-        <v>-0.03530428350789683</v>
+        <v>-0.02414589582870625</v>
       </c>
       <c r="F24">
-        <v>-0.02507053335120486</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.04425204486629049</v>
+      </c>
+      <c r="G24">
+        <v>-0.06853754598608533</v>
+      </c>
+      <c r="H24">
+        <v>-0.001899169422379676</v>
+      </c>
+      <c r="I24">
+        <v>-0.06662708807950463</v>
+      </c>
+      <c r="J24">
+        <v>0.05023838547535221</v>
+      </c>
+      <c r="K24">
+        <v>-0.02090510922445342</v>
+      </c>
+      <c r="L24">
+        <v>-0.03276116696299564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>-0.07796727084316873</v>
+        <v>0.07849843332032666</v>
       </c>
       <c r="C25">
-        <v>-0.04466926430183571</v>
+        <v>0.04120486836475602</v>
       </c>
       <c r="D25">
-        <v>-0.05053077918585085</v>
+        <v>-0.02889456547981522</v>
       </c>
       <c r="E25">
-        <v>-0.04518087577381748</v>
+        <v>-0.02288345246229685</v>
       </c>
       <c r="F25">
-        <v>-0.03616208156889924</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04817218427888996</v>
+      </c>
+      <c r="G25">
+        <v>-0.06370396329957291</v>
+      </c>
+      <c r="H25">
+        <v>0.01780865092359521</v>
+      </c>
+      <c r="I25">
+        <v>-0.08332092401521822</v>
+      </c>
+      <c r="J25">
+        <v>0.05692613660209692</v>
+      </c>
+      <c r="K25">
+        <v>-0.03998245953382549</v>
+      </c>
+      <c r="L25">
+        <v>-0.01904291479546774</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>-0.05260105485081712</v>
+        <v>0.04546669108249313</v>
       </c>
       <c r="C26">
-        <v>-0.01328679247058407</v>
+        <v>0.02371118480650578</v>
       </c>
       <c r="D26">
-        <v>-0.003488939872969358</v>
+        <v>0.01731891466075789</v>
       </c>
       <c r="E26">
-        <v>-0.03456212318562791</v>
+        <v>-0.011279816639203</v>
       </c>
       <c r="F26">
-        <v>0.01068286317783174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01622074609895962</v>
+      </c>
+      <c r="G26">
+        <v>-0.02623232695716002</v>
+      </c>
+      <c r="H26">
+        <v>0.02165875341685789</v>
+      </c>
+      <c r="I26">
+        <v>-0.03626913260853067</v>
+      </c>
+      <c r="J26">
+        <v>-0.02368979510452637</v>
+      </c>
+      <c r="K26">
+        <v>0.117459467317629</v>
+      </c>
+      <c r="L26">
+        <v>-0.004830176583460924</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1723,370 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>-0.05218032768226354</v>
+        <v>0.09448237512356969</v>
       </c>
       <c r="C28">
-        <v>0.299897831813674</v>
+        <v>-0.297504395684686</v>
       </c>
       <c r="D28">
-        <v>0.02217821506423003</v>
+        <v>0.01698577278589676</v>
       </c>
       <c r="E28">
-        <v>-0.08270420969711892</v>
+        <v>-0.03822637746424631</v>
       </c>
       <c r="F28">
-        <v>0.01374561922212452</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.0009476100571301895</v>
+      </c>
+      <c r="G28">
+        <v>-0.001282761503392568</v>
+      </c>
+      <c r="H28">
+        <v>-0.0358586308887623</v>
+      </c>
+      <c r="I28">
+        <v>0.02669910903720121</v>
+      </c>
+      <c r="J28">
+        <v>-0.01332708532056412</v>
+      </c>
+      <c r="K28">
+        <v>0.06152139700035399</v>
+      </c>
+      <c r="L28">
+        <v>-0.02829801706034729</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>-0.05726230097614187</v>
+        <v>0.05332638210644054</v>
       </c>
       <c r="C29">
-        <v>0.00115379776484834</v>
+        <v>0.01395457287752439</v>
       </c>
       <c r="D29">
-        <v>-0.03123307066345494</v>
+        <v>-0.01210571761411004</v>
       </c>
       <c r="E29">
-        <v>-0.020285942782573</v>
+        <v>-0.02337588447387477</v>
       </c>
       <c r="F29">
-        <v>-0.04433027448486318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.04058807889329734</v>
+      </c>
+      <c r="G29">
+        <v>-0.03822240450389278</v>
+      </c>
+      <c r="H29">
+        <v>0.05138519508571261</v>
+      </c>
+      <c r="I29">
+        <v>-0.04512867721647645</v>
+      </c>
+      <c r="J29">
+        <v>-0.01487109588889899</v>
+      </c>
+      <c r="K29">
+        <v>0.03552617230489307</v>
+      </c>
+      <c r="L29">
+        <v>-0.008031880078835202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>-0.1517572005183033</v>
+        <v>0.1260258684905342</v>
       </c>
       <c r="C30">
-        <v>-0.0576535748671031</v>
+        <v>0.05616258746374556</v>
       </c>
       <c r="D30">
-        <v>-0.08032842539376425</v>
+        <v>-0.00148822520576483</v>
       </c>
       <c r="E30">
-        <v>-0.06538125294570743</v>
+        <v>-0.06728705000033176</v>
       </c>
       <c r="F30">
-        <v>-0.04270023703240528</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1124117117275839</v>
+      </c>
+      <c r="G30">
+        <v>-0.0760109861455053</v>
+      </c>
+      <c r="H30">
+        <v>-0.1048597608209258</v>
+      </c>
+      <c r="I30">
+        <v>-0.2268889965285294</v>
+      </c>
+      <c r="J30">
+        <v>0.1671433460844848</v>
+      </c>
+      <c r="K30">
+        <v>0.2778451948044459</v>
+      </c>
+      <c r="L30">
+        <v>0.1554731616885099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>-0.06101938598731392</v>
+        <v>0.04760618867631133</v>
       </c>
       <c r="C31">
-        <v>-0.01554494083339367</v>
+        <v>0.04003550413902601</v>
       </c>
       <c r="D31">
-        <v>-0.03153003645858719</v>
+        <v>0.0008955924884668058</v>
       </c>
       <c r="E31">
-        <v>-0.001154292784707075</v>
+        <v>0.005029449802817139</v>
       </c>
       <c r="F31">
-        <v>-0.008153436290316113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02428617831157996</v>
+      </c>
+      <c r="G31">
+        <v>-0.00456073570865891</v>
+      </c>
+      <c r="H31">
+        <v>0.0561662691426727</v>
+      </c>
+      <c r="I31">
+        <v>-0.04955513090674787</v>
+      </c>
+      <c r="J31">
+        <v>-0.01409894728650997</v>
+      </c>
+      <c r="K31">
+        <v>0.01981475993645059</v>
+      </c>
+      <c r="L31">
+        <v>0.01868351310058019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>-0.04252726629342099</v>
+        <v>0.0481773375885779</v>
       </c>
       <c r="C32">
-        <v>6.56163547945849e-05</v>
+        <v>-0.007631483485889799</v>
       </c>
       <c r="D32">
-        <v>0.004271817139449388</v>
+        <v>0.03864336851052839</v>
       </c>
       <c r="E32">
-        <v>0.01079882653325273</v>
+        <v>-0.01065230219870969</v>
       </c>
       <c r="F32">
-        <v>-0.06629583737164672</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.05239239931422469</v>
+      </c>
+      <c r="G32">
+        <v>0.001165798372696337</v>
+      </c>
+      <c r="H32">
+        <v>-0.003327709831061725</v>
+      </c>
+      <c r="I32">
+        <v>0.005409546525779862</v>
+      </c>
+      <c r="J32">
+        <v>0.0134140568724791</v>
+      </c>
+      <c r="K32">
+        <v>0.139397870976084</v>
+      </c>
+      <c r="L32">
+        <v>0.004723386072671381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>-0.1025740607957229</v>
+        <v>0.1057957397190389</v>
       </c>
       <c r="C33">
-        <v>-0.02813597653018588</v>
+        <v>0.04583836909262987</v>
       </c>
       <c r="D33">
-        <v>-0.04278647948866851</v>
+        <v>-0.005450284168006356</v>
       </c>
       <c r="E33">
-        <v>-0.007211578272885722</v>
+        <v>0.01751954524091326</v>
       </c>
       <c r="F33">
-        <v>0.01164217728888195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.03925076264281549</v>
+      </c>
+      <c r="G33">
+        <v>-0.03544990231096834</v>
+      </c>
+      <c r="H33">
+        <v>0.03614261494671654</v>
+      </c>
+      <c r="I33">
+        <v>-0.07257540749860643</v>
+      </c>
+      <c r="J33">
+        <v>0.007893455986182935</v>
+      </c>
+      <c r="K33">
+        <v>0.0329314011654562</v>
+      </c>
+      <c r="L33">
+        <v>-0.06547722828893562</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>-0.06238375950637146</v>
+        <v>0.06894134869337816</v>
       </c>
       <c r="C34">
-        <v>-0.05916786307091935</v>
+        <v>0.04708865844716221</v>
       </c>
       <c r="D34">
-        <v>-0.03003341764187425</v>
+        <v>-0.01926917233223141</v>
       </c>
       <c r="E34">
-        <v>-0.02294768929690832</v>
+        <v>-0.01161043238641467</v>
       </c>
       <c r="F34">
-        <v>-0.0323722390616381</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03127916576474375</v>
+      </c>
+      <c r="G34">
+        <v>-0.05582936453820223</v>
+      </c>
+      <c r="H34">
+        <v>0.02216714357417875</v>
+      </c>
+      <c r="I34">
+        <v>-0.0623881130019249</v>
+      </c>
+      <c r="J34">
+        <v>0.03828454544259788</v>
+      </c>
+      <c r="K34">
+        <v>-0.04099662989583567</v>
+      </c>
+      <c r="L34">
+        <v>-0.04333036856006513</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>-0.04058575701064445</v>
+        <v>0.03439203235063358</v>
       </c>
       <c r="C35">
-        <v>-0.01006889120930399</v>
+        <v>0.02045838293407148</v>
       </c>
       <c r="D35">
-        <v>-0.02089166233907246</v>
+        <v>-0.006934064056795621</v>
       </c>
       <c r="E35">
-        <v>-0.002044024825642267</v>
+        <v>0.006126929392894909</v>
       </c>
       <c r="F35">
-        <v>-0.01347855970684967</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.02091746139616303</v>
+      </c>
+      <c r="G35">
+        <v>0.006792597744360516</v>
+      </c>
+      <c r="H35">
+        <v>0.02410174829144456</v>
+      </c>
+      <c r="I35">
+        <v>-0.0674461545011322</v>
+      </c>
+      <c r="J35">
+        <v>0.02829456836674934</v>
+      </c>
+      <c r="K35">
+        <v>0.02282398983299569</v>
+      </c>
+      <c r="L35">
+        <v>0.02604034321008568</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>-0.03641312498169415</v>
+        <v>0.03367421917010027</v>
       </c>
       <c r="C36">
-        <v>-0.007519631273571693</v>
+        <v>0.0120851857567949</v>
       </c>
       <c r="D36">
-        <v>-0.01197866473441571</v>
+        <v>0.005714877208859338</v>
       </c>
       <c r="E36">
-        <v>-0.03172470935931366</v>
+        <v>-0.02283413641214468</v>
       </c>
       <c r="F36">
-        <v>-0.02679272785027624</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.03055719866910056</v>
+      </c>
+      <c r="G36">
+        <v>-0.0330654155037573</v>
+      </c>
+      <c r="H36">
+        <v>0.0103772949896284</v>
+      </c>
+      <c r="I36">
+        <v>-0.06930750718093595</v>
+      </c>
+      <c r="J36">
+        <v>0.003157912055545882</v>
+      </c>
+      <c r="K36">
+        <v>0.0359844553555056</v>
+      </c>
+      <c r="L36">
+        <v>-0.008074979367648734</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +2103,180 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>-0.06801083937448157</v>
+        <v>0.05121032968600618</v>
       </c>
       <c r="C38">
-        <v>-0.01905884670206578</v>
+        <v>0.04493163665636923</v>
       </c>
       <c r="D38">
-        <v>0.01643410385637552</v>
+        <v>0.03132928395278302</v>
       </c>
       <c r="E38">
-        <v>0.01576518327021969</v>
+        <v>-0.0160333132279227</v>
       </c>
       <c r="F38">
-        <v>-0.05409364434495344</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01336087881564426</v>
+      </c>
+      <c r="G38">
+        <v>0.01135580750178135</v>
+      </c>
+      <c r="H38">
+        <v>0.0164573684878206</v>
+      </c>
+      <c r="I38">
+        <v>0.1319145291316365</v>
+      </c>
+      <c r="J38">
+        <v>0.02645094102949288</v>
+      </c>
+      <c r="K38">
+        <v>0.08716584217357644</v>
+      </c>
+      <c r="L38">
+        <v>-0.04081171422943163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>-0.09461843222976904</v>
+        <v>0.09672617743390279</v>
       </c>
       <c r="C39">
-        <v>-0.04862531236806638</v>
+        <v>0.05132656476687766</v>
       </c>
       <c r="D39">
-        <v>-0.04320366048254751</v>
+        <v>-0.01674891607954064</v>
       </c>
       <c r="E39">
-        <v>-0.006074773656272128</v>
+        <v>-0.01531639046715002</v>
       </c>
       <c r="F39">
-        <v>-0.01465440964239986</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04060756465604926</v>
+      </c>
+      <c r="G39">
+        <v>-0.05604839820861945</v>
+      </c>
+      <c r="H39">
+        <v>0.001789417081428506</v>
+      </c>
+      <c r="I39">
+        <v>-0.07898529865101425</v>
+      </c>
+      <c r="J39">
+        <v>0.1690266356906355</v>
+      </c>
+      <c r="K39">
+        <v>0.01153725249240326</v>
+      </c>
+      <c r="L39">
+        <v>0.03728291555130793</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>-0.07027181752663926</v>
+        <v>0.0432756417998533</v>
       </c>
       <c r="C40">
-        <v>-0.009475977484977232</v>
+        <v>0.04347255500402521</v>
       </c>
       <c r="D40">
-        <v>-0.01800871525387377</v>
+        <v>0.05653827949105732</v>
       </c>
       <c r="E40">
-        <v>-0.01650922708050259</v>
+        <v>-0.0009433300203219193</v>
       </c>
       <c r="F40">
-        <v>-0.1075326533078107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03728950987001243</v>
+      </c>
+      <c r="G40">
+        <v>-0.09677382171916929</v>
+      </c>
+      <c r="H40">
+        <v>-0.1165894597684655</v>
+      </c>
+      <c r="I40">
+        <v>-0.06426804409335296</v>
+      </c>
+      <c r="J40">
+        <v>0.2489496928769754</v>
+      </c>
+      <c r="K40">
+        <v>0.09391128336010138</v>
+      </c>
+      <c r="L40">
+        <v>-0.05379037065170583</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>-0.06172114831472431</v>
+        <v>0.04696849445880317</v>
       </c>
       <c r="C41">
-        <v>-0.03095921862058635</v>
+        <v>0.02878262684124543</v>
       </c>
       <c r="D41">
-        <v>-0.01332989210046434</v>
+        <v>-0.01018410034727819</v>
       </c>
       <c r="E41">
-        <v>0.009373968517593525</v>
+        <v>0.006570744511388634</v>
       </c>
       <c r="F41">
-        <v>0.0003028074286277927</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.01975495904960101</v>
+      </c>
+      <c r="G41">
+        <v>-0.02405382673725741</v>
+      </c>
+      <c r="H41">
+        <v>0.02910741228407667</v>
+      </c>
+      <c r="I41">
+        <v>-0.004614087391692767</v>
+      </c>
+      <c r="J41">
+        <v>0.03234223754243081</v>
+      </c>
+      <c r="K41">
+        <v>0.04965800317213675</v>
+      </c>
+      <c r="L41">
+        <v>-0.02388221159666721</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2293,104 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>-0.06445643095083267</v>
+        <v>0.06063579152455917</v>
       </c>
       <c r="C43">
-        <v>-0.01624704707086575</v>
+        <v>0.03490444694996622</v>
       </c>
       <c r="D43">
-        <v>-0.01703494602575685</v>
+        <v>-0.003516303682240922</v>
       </c>
       <c r="E43">
-        <v>-0.01811634474971637</v>
+        <v>-0.02153492213024394</v>
       </c>
       <c r="F43">
-        <v>0.003901043964512563</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.009460146943161774</v>
+      </c>
+      <c r="G43">
+        <v>-0.01477433146571947</v>
+      </c>
+      <c r="H43">
+        <v>0.05148209549407012</v>
+      </c>
+      <c r="I43">
+        <v>-0.01501185066145246</v>
+      </c>
+      <c r="J43">
+        <v>0.02011396992721385</v>
+      </c>
+      <c r="K43">
+        <v>0.02095006765380909</v>
+      </c>
+      <c r="L43">
+        <v>-0.02635058535945954</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>-0.08772798585380834</v>
+        <v>0.09082499548098363</v>
       </c>
       <c r="C44">
-        <v>-0.03979363129418208</v>
+        <v>0.05305788353182957</v>
       </c>
       <c r="D44">
-        <v>-0.001935387285232086</v>
+        <v>0.02077345170255353</v>
       </c>
       <c r="E44">
-        <v>-0.09393353556568533</v>
+        <v>-0.1082991004536454</v>
       </c>
       <c r="F44">
-        <v>-0.115852187802889</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.06940613455742781</v>
+      </c>
+      <c r="G44">
+        <v>-0.08734750216263035</v>
+      </c>
+      <c r="H44">
+        <v>0.03374935758600792</v>
+      </c>
+      <c r="I44">
+        <v>-0.1193731637205615</v>
+      </c>
+      <c r="J44">
+        <v>0.09753878185550827</v>
+      </c>
+      <c r="K44">
+        <v>0.01188368096881954</v>
+      </c>
+      <c r="L44">
+        <v>-0.04053697875911969</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2407,256 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>-0.0334802029226874</v>
+        <v>0.04717192542534704</v>
       </c>
       <c r="C46">
-        <v>-0.03283058548546453</v>
+        <v>0.03251397259929209</v>
       </c>
       <c r="D46">
-        <v>-0.01886089493666236</v>
+        <v>-0.009322124898723593</v>
       </c>
       <c r="E46">
-        <v>-0.01772659820456008</v>
+        <v>-0.02660521443231754</v>
       </c>
       <c r="F46">
-        <v>-0.0409793407866515</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04291280817226108</v>
+      </c>
+      <c r="G46">
+        <v>-0.01200699532792332</v>
+      </c>
+      <c r="H46">
+        <v>0.02021535036519366</v>
+      </c>
+      <c r="I46">
+        <v>-0.03761258608487708</v>
+      </c>
+      <c r="J46">
+        <v>-0.02543653097105996</v>
+      </c>
+      <c r="K46">
+        <v>0.0452312404874979</v>
+      </c>
+      <c r="L46">
+        <v>-0.05034056868802987</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>-0.03763920075223551</v>
+        <v>0.04718512294203905</v>
       </c>
       <c r="C47">
-        <v>0.006189474090354734</v>
+        <v>0.01235881335417641</v>
       </c>
       <c r="D47">
-        <v>-0.008594169595108645</v>
+        <v>0.01290695522236656</v>
       </c>
       <c r="E47">
-        <v>-0.01548243400324275</v>
+        <v>-0.005067707625711059</v>
       </c>
       <c r="F47">
-        <v>-0.07359135495528557</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.04132885771461259</v>
+      </c>
+      <c r="G47">
+        <v>0.002070699022038396</v>
+      </c>
+      <c r="H47">
+        <v>0.02175942675293941</v>
+      </c>
+      <c r="I47">
+        <v>-0.0330435507196197</v>
+      </c>
+      <c r="J47">
+        <v>-0.0211997539422175</v>
+      </c>
+      <c r="K47">
+        <v>-0.003355062587611865</v>
+      </c>
+      <c r="L47">
+        <v>-0.001525007932803295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>-0.04955935144279759</v>
+        <v>0.04493680535730239</v>
       </c>
       <c r="C48">
-        <v>-0.01328288070985384</v>
+        <v>0.01359264020862565</v>
       </c>
       <c r="D48">
-        <v>-0.02702300576791885</v>
+        <v>0.01192826429638348</v>
       </c>
       <c r="E48">
-        <v>-0.02278190078034976</v>
+        <v>-0.008411770911263154</v>
       </c>
       <c r="F48">
-        <v>-0.04954529525514806</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.04230840631804328</v>
+      </c>
+      <c r="G48">
+        <v>-0.01478054377097674</v>
+      </c>
+      <c r="H48">
+        <v>-0.005245618645256287</v>
+      </c>
+      <c r="I48">
+        <v>-0.05847220082256289</v>
+      </c>
+      <c r="J48">
+        <v>-0.00844622171267261</v>
+      </c>
+      <c r="K48">
+        <v>0.03682877402911679</v>
+      </c>
+      <c r="L48">
+        <v>0.03134738233888373</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>-0.1500133883717311</v>
+        <v>0.206263878956371</v>
       </c>
       <c r="C49">
-        <v>-0.02792877895730797</v>
+        <v>0.02890269751010486</v>
       </c>
       <c r="D49">
-        <v>-0.09609424243272009</v>
+        <v>-0.1814736847988077</v>
       </c>
       <c r="E49">
-        <v>-0.0198432170371221</v>
+        <v>0.02728653445299015</v>
       </c>
       <c r="F49">
-        <v>0.1422075353139884</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.04686283268267262</v>
+      </c>
+      <c r="G49">
+        <v>0.1687735017149293</v>
+      </c>
+      <c r="H49">
+        <v>-0.1815567772365912</v>
+      </c>
+      <c r="I49">
+        <v>0.1294404116450085</v>
+      </c>
+      <c r="J49">
+        <v>0.1194779629636322</v>
+      </c>
+      <c r="K49">
+        <v>-0.1581453348455766</v>
+      </c>
+      <c r="L49">
+        <v>-0.2045908041946077</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>-0.06666439265166052</v>
+        <v>0.05575508608424218</v>
       </c>
       <c r="C50">
-        <v>-0.01880417668847105</v>
+        <v>0.036346839595991</v>
       </c>
       <c r="D50">
-        <v>-0.03869942822757885</v>
+        <v>-0.006493071850699609</v>
       </c>
       <c r="E50">
-        <v>-0.002041416841756627</v>
+        <v>0.009600888201310546</v>
       </c>
       <c r="F50">
-        <v>-0.0268331580100311</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.04019150107551919</v>
+      </c>
+      <c r="G50">
+        <v>-0.02185119488802478</v>
+      </c>
+      <c r="H50">
+        <v>0.05436765719069291</v>
+      </c>
+      <c r="I50">
+        <v>-0.04271526196061282</v>
+      </c>
+      <c r="J50">
+        <v>-0.03567919654057702</v>
+      </c>
+      <c r="K50">
+        <v>0.03166691340608965</v>
+      </c>
+      <c r="L50">
+        <v>0.04300291627731227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>-0.03720964836728195</v>
+        <v>0.04012165213843451</v>
       </c>
       <c r="C51">
-        <v>-0.001795159913126041</v>
+        <v>0.003261138274406117</v>
       </c>
       <c r="D51">
-        <v>0.0140257032168872</v>
+        <v>0.01024820978321335</v>
       </c>
       <c r="E51">
-        <v>0.002800794684515318</v>
+        <v>-0.01915227249982715</v>
       </c>
       <c r="F51">
-        <v>-0.007693875795396839</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.03322853572547305</v>
+      </c>
+      <c r="G51">
+        <v>0.01418897820137415</v>
+      </c>
+      <c r="H51">
+        <v>-0.01852615286298981</v>
+      </c>
+      <c r="I51">
+        <v>0.01062500639888383</v>
+      </c>
+      <c r="J51">
+        <v>0.04518201688429201</v>
+      </c>
+      <c r="K51">
+        <v>-0.06538530965389523</v>
+      </c>
+      <c r="L51">
+        <v>-0.03511348092690821</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2673,180 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>-0.1527320273984422</v>
+        <v>0.1560417169843054</v>
       </c>
       <c r="C53">
-        <v>0.02930437291597336</v>
+        <v>0.0129556269307352</v>
       </c>
       <c r="D53">
-        <v>-0.07693579423121326</v>
+        <v>-0.07343679783077309</v>
       </c>
       <c r="E53">
-        <v>-0.004305434355908624</v>
+        <v>0.01554035710624991</v>
       </c>
       <c r="F53">
-        <v>0.05666258198305464</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.001552325938209728</v>
+      </c>
+      <c r="G53">
+        <v>0.02321616047368026</v>
+      </c>
+      <c r="H53">
+        <v>0.2408850096507778</v>
+      </c>
+      <c r="I53">
+        <v>0.06219013299247791</v>
+      </c>
+      <c r="J53">
+        <v>-0.04255161624185064</v>
+      </c>
+      <c r="K53">
+        <v>-0.05982454365999992</v>
+      </c>
+      <c r="L53">
+        <v>0.04083429010577731</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>-0.06321541498657246</v>
+        <v>0.06171618653082552</v>
       </c>
       <c r="C54">
-        <v>-0.01403747267254244</v>
+        <v>0.01132625833537044</v>
       </c>
       <c r="D54">
-        <v>0.004498294646881543</v>
+        <v>0.02048335329531527</v>
       </c>
       <c r="E54">
-        <v>-0.04374820114113428</v>
+        <v>-0.0378676596322611</v>
       </c>
       <c r="F54">
-        <v>-0.06075983078583041</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.05055938015172163</v>
+      </c>
+      <c r="G54">
+        <v>-0.07151980135444733</v>
+      </c>
+      <c r="H54">
+        <v>0.01028526515249359</v>
+      </c>
+      <c r="I54">
+        <v>-0.1139905925705074</v>
+      </c>
+      <c r="J54">
+        <v>-0.0166718558054848</v>
+      </c>
+      <c r="K54">
+        <v>0.06252038264252607</v>
+      </c>
+      <c r="L54">
+        <v>-0.008082579739104184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>-0.09350168602296656</v>
+        <v>0.09591216829211617</v>
       </c>
       <c r="C55">
-        <v>0.01157482749732072</v>
+        <v>0.02283574939047949</v>
       </c>
       <c r="D55">
-        <v>-0.05290953398408844</v>
+        <v>-0.04979974881420653</v>
       </c>
       <c r="E55">
-        <v>-0.02466842591399092</v>
+        <v>-0.0101399965883228</v>
       </c>
       <c r="F55">
-        <v>-0.01224414494906345</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01053575611220676</v>
+      </c>
+      <c r="G55">
+        <v>-0.0305376935843961</v>
+      </c>
+      <c r="H55">
+        <v>0.1768005463612949</v>
+      </c>
+      <c r="I55">
+        <v>-0.003560066473133524</v>
+      </c>
+      <c r="J55">
+        <v>-0.02571328142409196</v>
+      </c>
+      <c r="K55">
+        <v>-0.05334917876644468</v>
+      </c>
+      <c r="L55">
+        <v>0.01466664535579705</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>-0.1515790152998514</v>
+        <v>0.1518585441016605</v>
       </c>
       <c r="C56">
-        <v>0.03181122731076077</v>
+        <v>0.03300105543812634</v>
       </c>
       <c r="D56">
-        <v>-0.08931749937643944</v>
+        <v>-0.07336539262674818</v>
       </c>
       <c r="E56">
-        <v>-0.0428424636309845</v>
+        <v>-0.006785564215504827</v>
       </c>
       <c r="F56">
-        <v>0.06210999661638945</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.01227431108831287</v>
+      </c>
+      <c r="G56">
+        <v>0.002361874664028996</v>
+      </c>
+      <c r="H56">
+        <v>0.2445398360799092</v>
+      </c>
+      <c r="I56">
+        <v>0.07843147770639684</v>
+      </c>
+      <c r="J56">
+        <v>-0.02646645324865964</v>
+      </c>
+      <c r="K56">
+        <v>-0.02438510529490833</v>
+      </c>
+      <c r="L56">
+        <v>0.078341845478803</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,770 +2863,1472 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>-0.1122575123237994</v>
+        <v>0.07347500618260411</v>
       </c>
       <c r="C58">
-        <v>-0.05521566181032835</v>
+        <v>0.0482452275326937</v>
       </c>
       <c r="D58">
-        <v>0.1558242216278193</v>
+        <v>0.1782991826211167</v>
       </c>
       <c r="E58">
-        <v>-0.1240337623998949</v>
+        <v>-0.08478011975208734</v>
       </c>
       <c r="F58">
-        <v>-0.2453801355061841</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.05726211853674688</v>
+      </c>
+      <c r="G58">
+        <v>0.09624523390596287</v>
+      </c>
+      <c r="H58">
+        <v>-0.1747648977902734</v>
+      </c>
+      <c r="I58">
+        <v>-0.5311477953887133</v>
+      </c>
+      <c r="J58">
+        <v>0.06746037529229273</v>
+      </c>
+      <c r="K58">
+        <v>-0.2548745396318691</v>
+      </c>
+      <c r="L58">
+        <v>0.3875142766502265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>-0.1434522317615517</v>
+        <v>0.1799309644820382</v>
       </c>
       <c r="C59">
-        <v>0.4359650528575039</v>
+        <v>-0.3470591540582412</v>
       </c>
       <c r="D59">
-        <v>0.04852402585276363</v>
+        <v>0.02603484353579087</v>
       </c>
       <c r="E59">
-        <v>-0.09463704287643765</v>
+        <v>-0.03248322712914124</v>
       </c>
       <c r="F59">
-        <v>-0.03403205169339561</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.04091679959943748</v>
+      </c>
+      <c r="G59">
+        <v>-0.02435649915536271</v>
+      </c>
+      <c r="H59">
+        <v>0.03616750710620736</v>
+      </c>
+      <c r="I59">
+        <v>0.06087350108255011</v>
+      </c>
+      <c r="J59">
+        <v>0.04737719958642132</v>
+      </c>
+      <c r="K59">
+        <v>-0.004193653681441216</v>
+      </c>
+      <c r="L59">
+        <v>0.00109541059547972</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>-0.2235545199057044</v>
+        <v>0.2459574133121085</v>
       </c>
       <c r="C60">
-        <v>0.01365604711686615</v>
+        <v>0.04878676964390882</v>
       </c>
       <c r="D60">
-        <v>-0.0938737566023758</v>
+        <v>-0.1372102135241489</v>
       </c>
       <c r="E60">
-        <v>-0.05312487862246586</v>
+        <v>-0.01230983836565165</v>
       </c>
       <c r="F60">
-        <v>0.05716567175192867</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.03783638640932469</v>
+      </c>
+      <c r="G60">
+        <v>0.0419366317490034</v>
+      </c>
+      <c r="H60">
+        <v>-0.1076170199465772</v>
+      </c>
+      <c r="I60">
+        <v>0.1133468586793233</v>
+      </c>
+      <c r="J60">
+        <v>-0.07885401017016944</v>
+      </c>
+      <c r="K60">
+        <v>-0.1339615653123021</v>
+      </c>
+      <c r="L60">
+        <v>-0.05721736758862005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>-0.08099445160442835</v>
+        <v>0.08843629457620746</v>
       </c>
       <c r="C61">
-        <v>-0.02735431704742819</v>
+        <v>0.03825235833571756</v>
       </c>
       <c r="D61">
-        <v>-0.03614415020253318</v>
+        <v>-0.02158063390088824</v>
       </c>
       <c r="E61">
-        <v>-0.008169166806254468</v>
+        <v>-0.02234498727584317</v>
       </c>
       <c r="F61">
-        <v>-0.003984676095189888</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02964371890226263</v>
+      </c>
+      <c r="G61">
+        <v>-0.06812314932682348</v>
+      </c>
+      <c r="H61">
+        <v>0.05542835272902895</v>
+      </c>
+      <c r="I61">
+        <v>-0.03925126334137092</v>
+      </c>
+      <c r="J61">
+        <v>0.08937851915453592</v>
+      </c>
+      <c r="K61">
+        <v>0.008909217840942778</v>
+      </c>
+      <c r="L61">
+        <v>-0.004735079076212641</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>-0.1482752753993233</v>
+        <v>0.1463636607273578</v>
       </c>
       <c r="C62">
-        <v>0.02247781252416788</v>
+        <v>0.03788243753249577</v>
       </c>
       <c r="D62">
-        <v>-0.04493650884352528</v>
+        <v>-0.05872565149642866</v>
       </c>
       <c r="E62">
-        <v>0.01546836669608358</v>
+        <v>0.04057256973269981</v>
       </c>
       <c r="F62">
-        <v>0.09061929266087143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.02106086808791114</v>
+      </c>
+      <c r="G62">
+        <v>-0.01936890170259286</v>
+      </c>
+      <c r="H62">
+        <v>0.2356986563568018</v>
+      </c>
+      <c r="I62">
+        <v>0.06759120466860971</v>
+      </c>
+      <c r="J62">
+        <v>-0.09026380095962332</v>
+      </c>
+      <c r="K62">
+        <v>-0.03223573861138473</v>
+      </c>
+      <c r="L62">
+        <v>0.05410688680782265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>-0.06067310446977783</v>
+        <v>0.05287922728012306</v>
       </c>
       <c r="C63">
-        <v>-0.03005987649778085</v>
+        <v>0.02420160136170349</v>
       </c>
       <c r="D63">
-        <v>-0.01950041238983186</v>
+        <v>0.0002781020575761946</v>
       </c>
       <c r="E63">
-        <v>-0.01383238363743729</v>
+        <v>0.001907289895708527</v>
       </c>
       <c r="F63">
-        <v>-0.009013513232642793</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.03052752962170123</v>
+      </c>
+      <c r="G63">
+        <v>-0.05049061788340135</v>
+      </c>
+      <c r="H63">
+        <v>0.01614397280990256</v>
+      </c>
+      <c r="I63">
+        <v>-0.05728735879925894</v>
+      </c>
+      <c r="J63">
+        <v>-0.02932130265019865</v>
+      </c>
+      <c r="K63">
+        <v>0.03350587892521417</v>
+      </c>
+      <c r="L63">
+        <v>0.009409985266359168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>-0.09808774703261811</v>
+        <v>0.104069223650246</v>
       </c>
       <c r="C64">
-        <v>0.007086776015251327</v>
+        <v>0.01669150606306916</v>
       </c>
       <c r="D64">
-        <v>-0.06282038902557441</v>
+        <v>-0.04325067397921285</v>
       </c>
       <c r="E64">
-        <v>-0.03542391103828207</v>
+        <v>-0.03543429160107415</v>
       </c>
       <c r="F64">
-        <v>-0.04399185144740776</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.07043927653903753</v>
+      </c>
+      <c r="G64">
+        <v>-0.04732356551498123</v>
+      </c>
+      <c r="H64">
+        <v>-0.02683597952315819</v>
+      </c>
+      <c r="I64">
+        <v>-0.02979512769331225</v>
+      </c>
+      <c r="J64">
+        <v>0.05436920652534963</v>
+      </c>
+      <c r="K64">
+        <v>0.03489549314358917</v>
+      </c>
+      <c r="L64">
+        <v>-0.01079416745022069</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>-0.1217228698251754</v>
+        <v>0.1326462056394641</v>
       </c>
       <c r="C65">
-        <v>-0.02285138396154975</v>
+        <v>0.02136495409531228</v>
       </c>
       <c r="D65">
-        <v>-0.05401439962829505</v>
+        <v>-0.06542562246369127</v>
       </c>
       <c r="E65">
-        <v>-0.05549973613703688</v>
+        <v>0.003944599254520913</v>
       </c>
       <c r="F65">
-        <v>-0.09263494229375804</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.06369910326786163</v>
+      </c>
+      <c r="G65">
+        <v>-0.09235933970865966</v>
+      </c>
+      <c r="H65">
+        <v>-0.1871475679160396</v>
+      </c>
+      <c r="I65">
+        <v>-0.199563487389172</v>
+      </c>
+      <c r="J65">
+        <v>-0.6308898965144596</v>
+      </c>
+      <c r="K65">
+        <v>-0.104447382369949</v>
+      </c>
+      <c r="L65">
+        <v>-0.007359791227045199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>-0.15939818748248</v>
+        <v>0.142000217094097</v>
       </c>
       <c r="C66">
-        <v>-0.08166562951127519</v>
+        <v>0.0965889765237327</v>
       </c>
       <c r="D66">
-        <v>-0.06865560857231899</v>
+        <v>-0.02688384090169533</v>
       </c>
       <c r="E66">
-        <v>-0.01796282575554132</v>
+        <v>-0.008464344315135083</v>
       </c>
       <c r="F66">
-        <v>0.03336678207095659</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03853027962945521</v>
+      </c>
+      <c r="G66">
+        <v>-0.09364192722436469</v>
+      </c>
+      <c r="H66">
+        <v>0.01902546791417941</v>
+      </c>
+      <c r="I66">
+        <v>-0.06278710852389269</v>
+      </c>
+      <c r="J66">
+        <v>0.2531337225739513</v>
+      </c>
+      <c r="K66">
+        <v>0.07062344437360656</v>
+      </c>
+      <c r="L66">
+        <v>-0.01705669550650671</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>-0.09923162378204893</v>
+        <v>0.09882313430190456</v>
       </c>
       <c r="C67">
-        <v>-0.02523951800821122</v>
+        <v>0.05007119367663174</v>
       </c>
       <c r="D67">
-        <v>0.01749523628623171</v>
+        <v>0.01515743306147025</v>
       </c>
       <c r="E67">
-        <v>-0.00374801957444785</v>
+        <v>-0.04281510274851875</v>
       </c>
       <c r="F67">
-        <v>-0.00527490041082073</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.02908415369919817</v>
+      </c>
+      <c r="G67">
+        <v>-0.01337720023093751</v>
+      </c>
+      <c r="H67">
+        <v>0.007646738888395243</v>
+      </c>
+      <c r="I67">
+        <v>0.1530336575857673</v>
+      </c>
+      <c r="J67">
+        <v>0.05441558210172207</v>
+      </c>
+      <c r="K67">
+        <v>0.05548297502460359</v>
+      </c>
+      <c r="L67">
+        <v>-0.06977652032263013</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>-0.04764754774888567</v>
+        <v>0.08518636454042679</v>
       </c>
       <c r="C68">
-        <v>0.2586670041062095</v>
+        <v>-0.2778923940981545</v>
       </c>
       <c r="D68">
-        <v>0.03347919965864488</v>
+        <v>0.03794604051763025</v>
       </c>
       <c r="E68">
-        <v>-0.04443824901286298</v>
+        <v>-0.02711261357056076</v>
       </c>
       <c r="F68">
-        <v>-0.04039271900402925</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.0230764429626244</v>
+      </c>
+      <c r="G68">
+        <v>0.009841833776496819</v>
+      </c>
+      <c r="H68">
+        <v>0.01766520866731211</v>
+      </c>
+      <c r="I68">
+        <v>-0.04686789146885616</v>
+      </c>
+      <c r="J68">
+        <v>-0.04954216481462753</v>
+      </c>
+      <c r="K68">
+        <v>0.01126657830166418</v>
+      </c>
+      <c r="L68">
+        <v>0.03581282971648381</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>-0.06651517172164441</v>
+        <v>0.05615081606780538</v>
       </c>
       <c r="C69">
-        <v>-0.01244017971262373</v>
+        <v>0.01872221554111698</v>
       </c>
       <c r="D69">
-        <v>-0.0004687559699475635</v>
+        <v>0.01423875887594953</v>
       </c>
       <c r="E69">
-        <v>-0.01706278161084542</v>
+        <v>0.003896296813589124</v>
       </c>
       <c r="F69">
-        <v>-0.0112573264477252</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.001121838553308148</v>
+      </c>
+      <c r="G69">
+        <v>-0.02194844909888208</v>
+      </c>
+      <c r="H69">
+        <v>0.0367651321594076</v>
+      </c>
+      <c r="I69">
+        <v>-0.01053156224937886</v>
+      </c>
+      <c r="J69">
+        <v>0.008922219063835293</v>
+      </c>
+      <c r="K69">
+        <v>-0.004252303957739643</v>
+      </c>
+      <c r="L69">
+        <v>0.006017787202595246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>-0.01675009643597377</v>
+        <v>0.04111665606210705</v>
       </c>
       <c r="C70">
-        <v>0.01194588537961982</v>
+        <v>0.006529383742578753</v>
       </c>
       <c r="D70">
-        <v>0.003185795675271087</v>
+        <v>-0.02132185605795442</v>
       </c>
       <c r="E70">
-        <v>0.0148294860364249</v>
+        <v>0.01008694469708734</v>
       </c>
       <c r="F70">
-        <v>0.008224432165955855</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.0494554563914437</v>
+      </c>
+      <c r="G70">
+        <v>-0.008216265353327019</v>
+      </c>
+      <c r="H70">
+        <v>-0.02805720536224984</v>
+      </c>
+      <c r="I70">
+        <v>0.03341155610431756</v>
+      </c>
+      <c r="J70">
+        <v>0.02871260478139228</v>
+      </c>
+      <c r="K70">
+        <v>0.1423595572099266</v>
+      </c>
+      <c r="L70">
+        <v>-0.09735946133487219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>-0.04605640612485864</v>
+        <v>0.09530246123142269</v>
       </c>
       <c r="C71">
-        <v>0.2830351099810355</v>
+        <v>-0.2955729234089735</v>
       </c>
       <c r="D71">
-        <v>0.03638541227147261</v>
+        <v>0.02547396270002081</v>
       </c>
       <c r="E71">
-        <v>-0.07524962362235946</v>
+        <v>-0.04663706199634856</v>
       </c>
       <c r="F71">
-        <v>-0.02581616113671705</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.02288310044994731</v>
+      </c>
+      <c r="G71">
+        <v>-0.001347279555236855</v>
+      </c>
+      <c r="H71">
+        <v>0.01125570865329931</v>
+      </c>
+      <c r="I71">
+        <v>-0.0227853031028241</v>
+      </c>
+      <c r="J71">
+        <v>-0.01182225031521589</v>
+      </c>
+      <c r="K71">
+        <v>0.001434421006511509</v>
+      </c>
+      <c r="L71">
+        <v>-0.01202241042694868</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>-0.1462233303083857</v>
+        <v>0.1372207399452419</v>
       </c>
       <c r="C72">
-        <v>0.04594156884764478</v>
+        <v>0.0001032891553183476</v>
       </c>
       <c r="D72">
-        <v>-0.04059345308590526</v>
+        <v>0.0119864363060364</v>
       </c>
       <c r="E72">
-        <v>0.2366044526458522</v>
+        <v>0.1754594730452278</v>
       </c>
       <c r="F72">
-        <v>-0.03173332649295469</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.01225564943609963</v>
+      </c>
+      <c r="G72">
+        <v>-0.1247207040427631</v>
+      </c>
+      <c r="H72">
+        <v>0.02519503550725559</v>
+      </c>
+      <c r="I72">
+        <v>0.02295683055913395</v>
+      </c>
+      <c r="J72">
+        <v>-0.101128120442133</v>
+      </c>
+      <c r="K72">
+        <v>-0.1302903354160056</v>
+      </c>
+      <c r="L72">
+        <v>-0.09672925677243731</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>-0.2500918586498542</v>
+        <v>0.2422554578587678</v>
       </c>
       <c r="C73">
-        <v>-0.06088818549863957</v>
+        <v>0.1125671715522706</v>
       </c>
       <c r="D73">
-        <v>-0.1123863884125051</v>
+        <v>-0.2172543157447696</v>
       </c>
       <c r="E73">
-        <v>-0.07361611677318076</v>
+        <v>-0.02596278543193125</v>
       </c>
       <c r="F73">
-        <v>0.1901173542008404</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1922895404246238</v>
+      </c>
+      <c r="G73">
+        <v>0.2641698908486459</v>
+      </c>
+      <c r="H73">
+        <v>-0.2882453646505518</v>
+      </c>
+      <c r="I73">
+        <v>0.1324825155332141</v>
+      </c>
+      <c r="J73">
+        <v>0.2143465289848053</v>
+      </c>
+      <c r="K73">
+        <v>-0.4646838056303312</v>
+      </c>
+      <c r="L73">
+        <v>0.106039803016667</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>-0.08655512416619784</v>
+        <v>0.09299870178239711</v>
       </c>
       <c r="C74">
-        <v>0.01648011369896392</v>
+        <v>0.03319915689271374</v>
       </c>
       <c r="D74">
-        <v>-0.05965023685389061</v>
+        <v>-0.0452637283382456</v>
       </c>
       <c r="E74">
-        <v>-0.008762430989688869</v>
+        <v>0.01161796815801318</v>
       </c>
       <c r="F74">
-        <v>-0.01085546317343072</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.02227733687132919</v>
+      </c>
+      <c r="G74">
+        <v>0.02347315336052535</v>
+      </c>
+      <c r="H74">
+        <v>0.1434752212126119</v>
+      </c>
+      <c r="I74">
+        <v>0.006750768400392159</v>
+      </c>
+      <c r="J74">
+        <v>0.0149953505624652</v>
+      </c>
+      <c r="K74">
+        <v>-0.06297511652131735</v>
+      </c>
+      <c r="L74">
+        <v>0.03765174412783545</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>-0.1203824400810856</v>
+        <v>0.1043953290910574</v>
       </c>
       <c r="C75">
-        <v>0.00335500219117875</v>
+        <v>0.02990486508453423</v>
       </c>
       <c r="D75">
-        <v>0.0001678496567783759</v>
+        <v>0.01210762299189043</v>
       </c>
       <c r="E75">
-        <v>-0.02173876048743498</v>
+        <v>0.004293666479181796</v>
       </c>
       <c r="F75">
-        <v>0.02851099379114043</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.03470027732366374</v>
+      </c>
+      <c r="G75">
+        <v>0.01240807984632919</v>
+      </c>
+      <c r="H75">
+        <v>0.1317469907181499</v>
+      </c>
+      <c r="I75">
+        <v>0.01805951820337273</v>
+      </c>
+      <c r="J75">
+        <v>-0.04501900752595767</v>
+      </c>
+      <c r="K75">
+        <v>-0.02154665187434393</v>
+      </c>
+      <c r="L75">
+        <v>0.05330859327126923</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>-0.1390494623453438</v>
+        <v>0.1239535949662983</v>
       </c>
       <c r="C76">
-        <v>0.006766523360531375</v>
+        <v>0.05190524048411782</v>
       </c>
       <c r="D76">
-        <v>-0.07373308251252429</v>
+        <v>-0.05873822739351426</v>
       </c>
       <c r="E76">
-        <v>-0.02182262376921477</v>
+        <v>-0.008272449306450462</v>
       </c>
       <c r="F76">
-        <v>0.0006071827917686633</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.02109254254157985</v>
+      </c>
+      <c r="G76">
+        <v>0.007977917723064484</v>
+      </c>
+      <c r="H76">
+        <v>0.2556448888520543</v>
+      </c>
+      <c r="I76">
+        <v>0.03903006231274494</v>
+      </c>
+      <c r="J76">
+        <v>-0.04965163624158546</v>
+      </c>
+      <c r="K76">
+        <v>-0.03645363646523642</v>
+      </c>
+      <c r="L76">
+        <v>0.1365498365062559</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>-0.1258634116272302</v>
+        <v>0.08821879194516041</v>
       </c>
       <c r="C77">
-        <v>-0.03033934999974887</v>
+        <v>0.02658707862858212</v>
       </c>
       <c r="D77">
-        <v>0.1047821540756202</v>
+        <v>0.1514324513110878</v>
       </c>
       <c r="E77">
-        <v>-0.03403319899318978</v>
+        <v>-0.1143503165827682</v>
       </c>
       <c r="F77">
-        <v>-0.2799657610037496</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.0370784151441901</v>
+      </c>
+      <c r="G77">
+        <v>-0.6913387743752436</v>
+      </c>
+      <c r="H77">
+        <v>-0.2532044030411904</v>
+      </c>
+      <c r="I77">
+        <v>0.4313091267084049</v>
+      </c>
+      <c r="J77">
+        <v>0.01958943375965792</v>
+      </c>
+      <c r="K77">
+        <v>-0.07295092041333599</v>
+      </c>
+      <c r="L77">
+        <v>0.2428159675404223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>-0.126215753963472</v>
+        <v>0.1623104829343463</v>
       </c>
       <c r="C78">
-        <v>-0.06428304011475235</v>
+        <v>0.07743624466665207</v>
       </c>
       <c r="D78">
-        <v>-0.04091721365838211</v>
+        <v>0.02694774774229824</v>
       </c>
       <c r="E78">
-        <v>-0.02008947551189324</v>
+        <v>-0.09406127888093666</v>
       </c>
       <c r="F78">
-        <v>-0.08414686519191795</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.1392611829226038</v>
+      </c>
+      <c r="G78">
+        <v>-0.02499189585922584</v>
+      </c>
+      <c r="H78">
+        <v>-0.09528146661163737</v>
+      </c>
+      <c r="I78">
+        <v>-0.02985361707744076</v>
+      </c>
+      <c r="J78">
+        <v>0.01836694765073114</v>
+      </c>
+      <c r="K78">
+        <v>-0.05400043327311631</v>
+      </c>
+      <c r="L78">
+        <v>-0.5352132100618365</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>-0.1480913974405071</v>
+        <v>0.1433867765643796</v>
       </c>
       <c r="C79">
-        <v>-0.01579261344165528</v>
+        <v>0.04539564638413992</v>
       </c>
       <c r="D79">
-        <v>-0.07073847507698437</v>
+        <v>-0.04964772924931795</v>
       </c>
       <c r="E79">
-        <v>-0.00533587121937921</v>
+        <v>0.0008015177897826097</v>
       </c>
       <c r="F79">
-        <v>0.06526744449458356</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.01321632871493385</v>
+      </c>
+      <c r="G79">
+        <v>-0.02378077051116223</v>
+      </c>
+      <c r="H79">
+        <v>0.1907205843561535</v>
+      </c>
+      <c r="I79">
+        <v>0.06128912893648449</v>
+      </c>
+      <c r="J79">
+        <v>-0.06708350025162248</v>
+      </c>
+      <c r="K79">
+        <v>-0.03339278218621518</v>
+      </c>
+      <c r="L79">
+        <v>0.04726825254050056</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>-0.03826025754357384</v>
+        <v>0.04525392783653209</v>
       </c>
       <c r="C80">
-        <v>-0.02680559153064003</v>
+        <v>0.01392696862045236</v>
       </c>
       <c r="D80">
-        <v>-0.01950213074335351</v>
+        <v>-0.05776638280531915</v>
       </c>
       <c r="E80">
-        <v>-0.0001232235426492779</v>
+        <v>0.01488750253593766</v>
       </c>
       <c r="F80">
-        <v>-0.003688218175042129</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.02240115711373324</v>
+      </c>
+      <c r="G80">
+        <v>-0.002886938238254653</v>
+      </c>
+      <c r="H80">
+        <v>-0.03444025689157614</v>
+      </c>
+      <c r="I80">
+        <v>-0.07056497193679113</v>
+      </c>
+      <c r="J80">
+        <v>0.03850893576711367</v>
+      </c>
+      <c r="K80">
+        <v>0.02293764162529456</v>
+      </c>
+      <c r="L80">
+        <v>-0.07633506345259847</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>-0.1359802380667969</v>
+        <v>0.1331790827622694</v>
       </c>
       <c r="C81">
-        <v>0.0002716398363149003</v>
+        <v>0.019192211364912</v>
       </c>
       <c r="D81">
-        <v>-0.06035864355333902</v>
+        <v>-0.03545783086805223</v>
       </c>
       <c r="E81">
-        <v>-0.02712286097824754</v>
+        <v>0.00165833578714028</v>
       </c>
       <c r="F81">
-        <v>0.03617183742876593</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.01986030745095255</v>
+      </c>
+      <c r="G81">
+        <v>-0.0003502771181648717</v>
+      </c>
+      <c r="H81">
+        <v>0.1470641057202492</v>
+      </c>
+      <c r="I81">
+        <v>0.02011149297037363</v>
+      </c>
+      <c r="J81">
+        <v>0.02884230330501976</v>
+      </c>
+      <c r="K81">
+        <v>0.01951477965361064</v>
+      </c>
+      <c r="L81">
+        <v>0.03777595314899748</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>-0.123373674683778</v>
+        <v>0.1257110309271892</v>
       </c>
       <c r="C82">
-        <v>-0.02183283321641007</v>
+        <v>0.03440480305439313</v>
       </c>
       <c r="D82">
-        <v>-0.0423826471646053</v>
+        <v>-0.04372936775850783</v>
       </c>
       <c r="E82">
-        <v>-0.03573507100371023</v>
+        <v>0.006844878174239713</v>
       </c>
       <c r="F82">
-        <v>0.06272107484284546</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.006305040323659602</v>
+      </c>
+      <c r="G82">
+        <v>0.01586091678436385</v>
+      </c>
+      <c r="H82">
+        <v>0.2826440785987992</v>
+      </c>
+      <c r="I82">
+        <v>0.04258394963076235</v>
+      </c>
+      <c r="J82">
+        <v>0.01181532856889726</v>
+      </c>
+      <c r="K82">
+        <v>0.008546099298661248</v>
+      </c>
+      <c r="L82">
+        <v>0.09425802343683555</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>-0.05542846572280649</v>
+        <v>0.07638012475791796</v>
       </c>
       <c r="C83">
-        <v>-0.02674680397350376</v>
+        <v>0.0378683688721609</v>
       </c>
       <c r="D83">
-        <v>0.07102177478439989</v>
+        <v>0.01891117153063352</v>
       </c>
       <c r="E83">
-        <v>-0.007737807618695501</v>
+        <v>-0.01518223677367186</v>
       </c>
       <c r="F83">
-        <v>0.08192218781813095</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.08775447930238842</v>
+      </c>
+      <c r="G83">
+        <v>0.02995486744232345</v>
+      </c>
+      <c r="H83">
+        <v>-0.05663675804370438</v>
+      </c>
+      <c r="I83">
+        <v>-0.07439301545139637</v>
+      </c>
+      <c r="J83">
+        <v>0.03651580386137216</v>
+      </c>
+      <c r="K83">
+        <v>0.05286504938435042</v>
+      </c>
+      <c r="L83">
+        <v>-0.07599250620762042</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>-0.05004686342162978</v>
+        <v>0.03244041141679074</v>
       </c>
       <c r="C84">
-        <v>-0.009908491939457713</v>
+        <v>0.04380889076017087</v>
       </c>
       <c r="D84">
-        <v>-0.04997243563913582</v>
+        <v>0.005262132028577875</v>
       </c>
       <c r="E84">
-        <v>0.02212083696593123</v>
+        <v>0.03391911159004148</v>
       </c>
       <c r="F84">
-        <v>0.0005645793629614954</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>-0.05694706116618111</v>
+      </c>
+      <c r="G84">
+        <v>0.04009786669438161</v>
+      </c>
+      <c r="H84">
+        <v>0.02017673604708503</v>
+      </c>
+      <c r="I84">
+        <v>-0.09282383723370502</v>
+      </c>
+      <c r="J84">
+        <v>0.03511239530210834</v>
+      </c>
+      <c r="K84">
+        <v>0.09049752108282472</v>
+      </c>
+      <c r="L84">
+        <v>-0.04113225244373109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>-0.1097144207621255</v>
+        <v>0.1201803549363764</v>
       </c>
       <c r="C85">
-        <v>-0.02741266216050348</v>
+        <v>0.03420430129990996</v>
       </c>
       <c r="D85">
-        <v>-0.03227540788077899</v>
+        <v>-0.03855284668262308</v>
       </c>
       <c r="E85">
-        <v>-0.06159334124915163</v>
+        <v>-0.04171175026869348</v>
       </c>
       <c r="F85">
-        <v>0.003116322060331956</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.005607281879649343</v>
+      </c>
+      <c r="G85">
+        <v>-0.01332918535743716</v>
+      </c>
+      <c r="H85">
+        <v>0.1991550848624674</v>
+      </c>
+      <c r="I85">
+        <v>0.03287501842625367</v>
+      </c>
+      <c r="J85">
+        <v>-0.05971125768369722</v>
+      </c>
+      <c r="K85">
+        <v>-0.02924706467542063</v>
+      </c>
+      <c r="L85">
+        <v>0.03475757556894521</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>-0.0762408871377321</v>
+        <v>0.06863963815267395</v>
       </c>
       <c r="C86">
-        <v>-0.07199151187042192</v>
+        <v>0.04108687826951572</v>
       </c>
       <c r="D86">
-        <v>-0.0291250780810055</v>
+        <v>0.01826789001550518</v>
       </c>
       <c r="E86">
-        <v>-0.007853979940857632</v>
+        <v>-0.02382070235663691</v>
       </c>
       <c r="F86">
-        <v>-0.02651819751298905</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.03753007825018116</v>
+      </c>
+      <c r="G86">
+        <v>0.02067737708230916</v>
+      </c>
+      <c r="H86">
+        <v>-0.03154805954644505</v>
+      </c>
+      <c r="I86">
+        <v>0.02103650819250238</v>
+      </c>
+      <c r="J86">
+        <v>0.004716739938214948</v>
+      </c>
+      <c r="K86">
+        <v>0.0785415238742532</v>
+      </c>
+      <c r="L86">
+        <v>-0.422145908053056</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>-0.1253108464032075</v>
+        <v>0.125289744970351</v>
       </c>
       <c r="C87">
-        <v>-0.06196143451651567</v>
+        <v>0.07225117493606192</v>
       </c>
       <c r="D87">
-        <v>-0.05559772980899796</v>
+        <v>0.003937389287043742</v>
       </c>
       <c r="E87">
-        <v>-0.04606083059792759</v>
+        <v>-0.02981075852034979</v>
       </c>
       <c r="F87">
-        <v>-0.1713911505647182</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.09275959763150099</v>
+      </c>
+      <c r="G87">
+        <v>-0.2010586909278142</v>
+      </c>
+      <c r="H87">
+        <v>-0.09714057602867075</v>
+      </c>
+      <c r="I87">
+        <v>0.05684565783243056</v>
+      </c>
+      <c r="J87">
+        <v>0.02440637317635649</v>
+      </c>
+      <c r="K87">
+        <v>0.01789973629547762</v>
+      </c>
+      <c r="L87">
+        <v>0.07264339825759668</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>-0.05809058879895367</v>
+        <v>0.06448191037577225</v>
       </c>
       <c r="C88">
-        <v>-0.02209870699637371</v>
+        <v>0.0381840367993254</v>
       </c>
       <c r="D88">
-        <v>-0.02542867730720692</v>
+        <v>-0.0363406539293046</v>
       </c>
       <c r="E88">
-        <v>-0.00970717140994248</v>
+        <v>-0.006101618848434132</v>
       </c>
       <c r="F88">
-        <v>-0.00827498221666809</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.00603776641509108</v>
+      </c>
+      <c r="G88">
+        <v>-0.02048504428978284</v>
+      </c>
+      <c r="H88">
+        <v>0.0132408810601319</v>
+      </c>
+      <c r="I88">
+        <v>-0.03788617216607547</v>
+      </c>
+      <c r="J88">
+        <v>0.04115837670604894</v>
+      </c>
+      <c r="K88">
+        <v>0.03434106285379716</v>
+      </c>
+      <c r="L88">
+        <v>-0.0204642638726883</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>-0.08410290964360236</v>
+        <v>0.1563194504839087</v>
       </c>
       <c r="C89">
-        <v>0.3318059219084534</v>
+        <v>-0.3744463637550665</v>
       </c>
       <c r="D89">
-        <v>0.04503673187707209</v>
+        <v>0.01633858394885925</v>
       </c>
       <c r="E89">
-        <v>-0.1183610599794413</v>
+        <v>-0.09011337008702996</v>
       </c>
       <c r="F89">
-        <v>-0.05367176858446198</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.004779087193353789</v>
+      </c>
+      <c r="G89">
+        <v>0.03047660044050825</v>
+      </c>
+      <c r="H89">
+        <v>-0.01663800934055774</v>
+      </c>
+      <c r="I89">
+        <v>-0.06570655056935933</v>
+      </c>
+      <c r="J89">
+        <v>0.08874905604235038</v>
+      </c>
+      <c r="K89">
+        <v>-0.01372939772068348</v>
+      </c>
+      <c r="L89">
+        <v>0.02143610941627592</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>-0.07086250176704421</v>
+        <v>0.1088234769112749</v>
       </c>
       <c r="C90">
-        <v>0.2857037109020717</v>
+        <v>-0.2798144438565045</v>
       </c>
       <c r="D90">
-        <v>0.05917945405456442</v>
+        <v>0.03213109498097336</v>
       </c>
       <c r="E90">
-        <v>-0.0557273736322688</v>
+        <v>-0.03868994275178547</v>
       </c>
       <c r="F90">
-        <v>-0.04646028491228101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01279086054298466</v>
+      </c>
+      <c r="G90">
+        <v>-0.02803957825852937</v>
+      </c>
+      <c r="H90">
+        <v>-0.0397333564947799</v>
+      </c>
+      <c r="I90">
+        <v>-0.04320141966033302</v>
+      </c>
+      <c r="J90">
+        <v>0.06016619675055392</v>
+      </c>
+      <c r="K90">
+        <v>-0.01038695332852278</v>
+      </c>
+      <c r="L90">
+        <v>-0.00733774204636718</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>-0.1010176024160253</v>
+        <v>0.08768486410775221</v>
       </c>
       <c r="C91">
-        <v>-0.0122658869847422</v>
+        <v>0.04035406899799931</v>
       </c>
       <c r="D91">
-        <v>-0.03331485432518759</v>
+        <v>-0.007384980521885882</v>
       </c>
       <c r="E91">
-        <v>-0.01242192962680483</v>
+        <v>-0.0002559259839046469</v>
       </c>
       <c r="F91">
-        <v>-0.0005355326595580937</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.002896754711997941</v>
+      </c>
+      <c r="G91">
+        <v>0.02354005283942493</v>
+      </c>
+      <c r="H91">
+        <v>0.09164919574043445</v>
+      </c>
+      <c r="I91">
+        <v>0.01254141880565658</v>
+      </c>
+      <c r="J91">
+        <v>-0.02779954948521422</v>
+      </c>
+      <c r="K91">
+        <v>-0.03555256918199087</v>
+      </c>
+      <c r="L91">
+        <v>0.08575336906416078</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>-0.05336654125079859</v>
+        <v>0.1108167985623393</v>
       </c>
       <c r="C92">
-        <v>0.3362396830131986</v>
+        <v>-0.3360308473286805</v>
       </c>
       <c r="D92">
-        <v>0.02353009292495761</v>
+        <v>0.01564086045359417</v>
       </c>
       <c r="E92">
-        <v>-0.08728118103767818</v>
+        <v>-0.05189169367637791</v>
       </c>
       <c r="F92">
-        <v>-0.01147911137259611</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.02650452858009595</v>
+      </c>
+      <c r="G92">
+        <v>0.02523418333754227</v>
+      </c>
+      <c r="H92">
+        <v>0.01672663549640899</v>
+      </c>
+      <c r="I92">
+        <v>-0.01702145034446962</v>
+      </c>
+      <c r="J92">
+        <v>0.02261367960736372</v>
+      </c>
+      <c r="K92">
+        <v>0.003711101567716625</v>
+      </c>
+      <c r="L92">
+        <v>-0.0179539029613213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>-0.05708547334718402</v>
+        <v>0.1140905144981535</v>
       </c>
       <c r="C93">
-        <v>0.2884859693531524</v>
+        <v>-0.3075898856540931</v>
       </c>
       <c r="D93">
-        <v>0.02640180259322528</v>
+        <v>0.004516018909858336</v>
       </c>
       <c r="E93">
-        <v>-0.05353391132821465</v>
+        <v>-0.02367211353285034</v>
       </c>
       <c r="F93">
-        <v>-0.02941152911504986</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.002733931693714723</v>
+      </c>
+      <c r="G93">
+        <v>0.001773358956891602</v>
+      </c>
+      <c r="H93">
+        <v>-0.01311245872652629</v>
+      </c>
+      <c r="I93">
+        <v>-0.001190633815675516</v>
+      </c>
+      <c r="J93">
+        <v>-0.001245599538430952</v>
+      </c>
+      <c r="K93">
+        <v>0.03612462201468602</v>
+      </c>
+      <c r="L93">
+        <v>-0.006544399650781085</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>-0.122769759863414</v>
+        <v>0.1196695292484</v>
       </c>
       <c r="C94">
-        <v>-0.04967410068876688</v>
+        <v>0.06078507081892001</v>
       </c>
       <c r="D94">
-        <v>-0.02873668364979252</v>
+        <v>-0.008548558937337943</v>
       </c>
       <c r="E94">
-        <v>-0.03022105684203346</v>
+        <v>-0.02556923044748064</v>
       </c>
       <c r="F94">
-        <v>0.009737455293036103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.006775441362099199</v>
+      </c>
+      <c r="G94">
+        <v>0.05510884137579625</v>
+      </c>
+      <c r="H94">
+        <v>0.128674021359248</v>
+      </c>
+      <c r="I94">
+        <v>-0.0005438870825908693</v>
+      </c>
+      <c r="J94">
+        <v>-0.0265199739959664</v>
+      </c>
+      <c r="K94">
+        <v>-0.03252263826046302</v>
+      </c>
+      <c r="L94">
+        <v>0.05405007304141909</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>-0.1247939941528533</v>
+        <v>0.1348451596834574</v>
       </c>
       <c r="C95">
-        <v>-0.0892208672416043</v>
+        <v>0.07686030212203616</v>
       </c>
       <c r="D95">
-        <v>-0.08203476916763185</v>
+        <v>-0.03206240210965536</v>
       </c>
       <c r="E95">
-        <v>-0.0741618099216257</v>
+        <v>-0.05374473897961014</v>
       </c>
       <c r="F95">
-        <v>0.03110458942426481</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.06532783414001304</v>
+      </c>
+      <c r="G95">
+        <v>-0.03243862903334323</v>
+      </c>
+      <c r="H95">
+        <v>-0.1270269264818804</v>
+      </c>
+      <c r="I95">
+        <v>-0.06172689904700144</v>
+      </c>
+      <c r="J95">
+        <v>0.003918387300717238</v>
+      </c>
+      <c r="K95">
+        <v>-0.02268878205023247</v>
+      </c>
+      <c r="L95">
+        <v>0.03430428659571872</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4345,142 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>-0.2458864328450028</v>
+        <v>0.1849917656221253</v>
       </c>
       <c r="C97">
-        <v>0.1550400002459124</v>
+        <v>-0.03737668555379639</v>
       </c>
       <c r="D97">
-        <v>-0.03239526090098341</v>
+        <v>0.2725272438827381</v>
       </c>
       <c r="E97">
-        <v>0.8873777518088702</v>
+        <v>0.8950023777232268</v>
       </c>
       <c r="F97">
-        <v>-0.05616029128372774</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.09295142339184088</v>
+      </c>
+      <c r="G97">
+        <v>-0.03994280234897583</v>
+      </c>
+      <c r="H97">
+        <v>-0.05997038314707716</v>
+      </c>
+      <c r="I97">
+        <v>-0.03361843675726801</v>
+      </c>
+      <c r="J97">
+        <v>0.07225922164051776</v>
+      </c>
+      <c r="K97">
+        <v>-0.03933018672584772</v>
+      </c>
+      <c r="L97">
+        <v>0.004484067772882326</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>-0.2896151764673435</v>
+        <v>0.2822911757341838</v>
       </c>
       <c r="C98">
-        <v>-0.06050665872836498</v>
+        <v>0.1035646830966272</v>
       </c>
       <c r="D98">
-        <v>-0.0006926541146149635</v>
+        <v>-0.114797616191256</v>
       </c>
       <c r="E98">
-        <v>-0.06786896752101616</v>
+        <v>0.06105835055313438</v>
       </c>
       <c r="F98">
-        <v>0.4927393300596988</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2613180466423677</v>
+      </c>
+      <c r="G98">
+        <v>0.2954688359427931</v>
+      </c>
+      <c r="H98">
+        <v>-0.2672475345186463</v>
+      </c>
+      <c r="I98">
+        <v>0.1776695978653261</v>
+      </c>
+      <c r="J98">
+        <v>-0.1223597157729415</v>
+      </c>
+      <c r="K98">
+        <v>0.6092207203495894</v>
+      </c>
+      <c r="L98">
+        <v>0.2355134804454785</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>-0.257645448857936</v>
+        <v>0.1569161312792937</v>
       </c>
       <c r="C99">
-        <v>-0.1442875304004031</v>
+        <v>0.1049560613538019</v>
       </c>
       <c r="D99">
-        <v>0.8922399528067434</v>
+        <v>0.5909697426832432</v>
       </c>
       <c r="E99">
-        <v>0.01178216950293666</v>
+        <v>-0.1380768134714785</v>
       </c>
       <c r="F99">
-        <v>0.1380023952070636</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.6646944526077838</v>
+      </c>
+      <c r="G99">
+        <v>-0.021959143765272</v>
+      </c>
+      <c r="H99">
+        <v>0.1340265254656706</v>
+      </c>
+      <c r="I99">
+        <v>-0.08382072624973171</v>
+      </c>
+      <c r="J99">
+        <v>-0.06143590212037561</v>
+      </c>
+      <c r="K99">
+        <v>-0.03107821945182687</v>
+      </c>
+      <c r="L99">
+        <v>-0.1809763831524001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,30 +4497,66 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>-0.05729998149445244</v>
+        <v>0.0534009606951081</v>
       </c>
       <c r="C101">
-        <v>0.0006900837326279571</v>
+        <v>0.01386459795457909</v>
       </c>
       <c r="D101">
-        <v>-0.03134921750198705</v>
+        <v>-0.01307340970940028</v>
       </c>
       <c r="E101">
-        <v>-0.02108821973207623</v>
+        <v>-0.02453621800969408</v>
       </c>
       <c r="F101">
-        <v>-0.04246015964267472</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.04007476100423815</v>
+      </c>
+      <c r="G101">
+        <v>-0.03701692260722398</v>
+      </c>
+      <c r="H101">
+        <v>0.05152305149007395</v>
+      </c>
+      <c r="I101">
+        <v>-0.04317778269099479</v>
+      </c>
+      <c r="J101">
+        <v>-0.0121750140866496</v>
+      </c>
+      <c r="K101">
+        <v>0.03388560535260701</v>
+      </c>
+      <c r="L101">
+        <v>-0.01014618444502417</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2737,10 +4573,28 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4611,28 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4647,24 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
